--- a/Templates/sample_inventory/Sample_Inventory_Metadata_2021Q4_template.xlsx
+++ b/Templates/sample_inventory/Sample_Inventory_Metadata_2021Q4_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pam.baker/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pam.baker/Documents/repos/BCDC-Metadata/Templates/sample_inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06228155-D852-2345-A051-916E2638FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEC6B8-00BE-734F-81B8-49F03B4E27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26400" windowHeight="17220" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="460" windowWidth="23620" windowHeight="17220" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,9 @@
     <sheet name="Data_Collections_CV" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Controlled Values'!$C$3:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Controlled Values'!$C$3:$C$16</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="812">
   <si>
     <t>Sample Level Metadata:</t>
   </si>
@@ -2480,6 +2479,21 @@
   </si>
   <si>
     <t>Changes to template for December 2021</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>electrophysiology</t>
+  </si>
+  <si>
+    <t>genomics</t>
+  </si>
+  <si>
+    <t>histology imaging</t>
+  </si>
+  <si>
+    <t>optical physiology</t>
   </si>
 </sst>
 </file>
@@ -4511,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4623,8 +4637,8 @@
         <v>74</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="18" t="s">
-        <v>75</v>
+      <c r="C4" s="36" t="s">
+        <v>807</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="48" t="s">
@@ -4661,7 +4675,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="18" t="s">
@@ -4700,7 +4714,7 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="18" t="s">
@@ -4736,7 +4750,7 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="18" t="s">
-        <v>100</v>
+        <v>808</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="18" t="s">
@@ -4768,7 +4782,7 @@
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="18" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="18" t="s">
@@ -4802,7 +4816,7 @@
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="18" t="s">
-        <v>113</v>
+        <v>809</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18" t="s">
@@ -4836,7 +4850,7 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="18" t="s">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18" t="s">
@@ -4862,13 +4876,13 @@
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="41" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="19" t="s">
-        <v>126</v>
+      <c r="C11" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="18" t="s">
@@ -4901,7 +4915,9 @@
         <v>132</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="18" t="s">
+        <v>811</v>
+      </c>
       <c r="D12" s="26"/>
       <c r="E12" s="18" t="s">
         <v>114</v>
@@ -4933,7 +4949,9 @@
         <v>138</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18" t="s">
         <v>121</v>
@@ -4963,7 +4981,9 @@
         <v>143</v>
       </c>
       <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="D14" s="26"/>
       <c r="E14" s="18" t="s">
         <v>601</v>
@@ -4995,7 +5015,9 @@
         <v>149</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D15" s="26"/>
       <c r="E15" s="18" t="s">
         <v>127</v>
@@ -5022,12 +5044,14 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="D16" s="26"/>
       <c r="E16" s="18" t="s">
         <v>602</v>
@@ -5916,9 +5940,7 @@
         <v>222</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="C52" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="C52" s="26"/>
       <c r="D52" s="47"/>
       <c r="E52" s="16" t="s">
         <v>222</v>
@@ -5938,9 +5960,7 @@
         <v>225</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="C53" s="26" t="s">
-        <v>225</v>
-      </c>
+      <c r="C53" s="26"/>
       <c r="E53" s="26" t="s">
         <v>225</v>
       </c>
@@ -5958,9 +5978,7 @@
         <v>227</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="C54" s="26" t="s">
-        <v>227</v>
-      </c>
+      <c r="C54" s="26"/>
       <c r="E54" s="26" t="s">
         <v>227</v>
       </c>
@@ -5978,9 +5996,7 @@
         <v>235</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="C55" s="26" t="s">
-        <v>229</v>
-      </c>
+      <c r="C55" s="26"/>
       <c r="E55" s="26" t="s">
         <v>229</v>
       </c>
@@ -5996,9 +6012,7 @@
     <row r="56" spans="1:16">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
-      <c r="C56" s="26" t="s">
-        <v>238</v>
-      </c>
+      <c r="C56" s="26"/>
       <c r="E56" s="26" t="s">
         <v>232</v>
       </c>
@@ -6014,7 +6028,9 @@
     <row r="57" spans="1:16">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="C57" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="E57" t="s">
         <v>619</v>
       </c>
@@ -6030,7 +6046,9 @@
     <row r="58" spans="1:16">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="26" t="s">
+        <v>225</v>
+      </c>
       <c r="I58" s="26"/>
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
@@ -6041,6 +6059,9 @@
       <c r="P58" s="26"/>
     </row>
     <row r="59" spans="1:16">
+      <c r="C59" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
@@ -6051,6 +6072,9 @@
       <c r="P59" s="26"/>
     </row>
     <row r="60" spans="1:16">
+      <c r="C60" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
@@ -6061,6 +6085,9 @@
       <c r="P60" s="26"/>
     </row>
     <row r="61" spans="1:16">
+      <c r="C61" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
       <c r="K61" s="26"/>
@@ -6071,6 +6098,7 @@
       <c r="P61" s="26"/>
     </row>
     <row r="62" spans="1:16">
+      <c r="C62" s="26"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
@@ -6081,6 +6109,7 @@
       <c r="P62" s="26"/>
     </row>
     <row r="63" spans="1:16">
+      <c r="C63" s="26"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
@@ -6169,7 +6198,7 @@
       <c r="J74" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:C11" xr:uid="{6D307B3E-6034-4F21-9567-189C6482E023}"/>
+  <autoFilter ref="C3:C16" xr:uid="{6D307B3E-6034-4F21-9567-189C6482E023}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K28">
     <sortCondition ref="K4"/>
   </sortState>
@@ -6185,7 +6214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EDC583-1A24-4950-A0DA-611E0CF11932}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -10009,12 +10038,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="0af18bdd-3447-408d-80d3-6f9fce434a6a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="ce57bbcd-944d-48da-b7d9-79b20bf66928">
+      <UserInfo>
+        <DisplayName>Tim Fliss</DisplayName>
+        <AccountId>767</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10249,24 +10284,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="0af18bdd-3447-408d-80d3-6f9fce434a6a" xsi:nil="true"/>
-    <SharedWithUsers xmlns="ce57bbcd-944d-48da-b7d9-79b20bf66928">
-      <UserInfo>
-        <DisplayName>Tim Fliss</DisplayName>
-        <AccountId>767</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F7C331-08C4-4F14-8B6A-29CD8DF47E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8494D3F1-3EF7-4062-8C18-CF37BCAAC176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0af18bdd-3447-408d-80d3-6f9fce434a6a"/>
+    <ds:schemaRef ds:uri="ce57bbcd-944d-48da-b7d9-79b20bf66928"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10291,12 +10323,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8494D3F1-3EF7-4062-8C18-CF37BCAAC176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F7C331-08C4-4F14-8B6A-29CD8DF47E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0af18bdd-3447-408d-80d3-6f9fce434a6a"/>
-    <ds:schemaRef ds:uri="ce57bbcd-944d-48da-b7d9-79b20bf66928"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Templates/sample_inventory/Sample_Inventory_Metadata_2021Q4_template.xlsx
+++ b/Templates/sample_inventory/Sample_Inventory_Metadata_2021Q4_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pam.baker/Documents/repos/BCDC-Metadata/Templates/sample_inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEC6B8-00BE-734F-81B8-49F03B4E27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4E4ED-8B4D-8D45-986F-E4BCA14F81B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="460" windowWidth="23620" windowHeight="17220" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="460" windowWidth="23400" windowHeight="17220" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="819">
   <si>
     <t>Sample Level Metadata:</t>
   </si>
@@ -2494,6 +2494,27 @@
   </si>
   <si>
     <t>optical physiology</t>
+  </si>
+  <si>
+    <t>10X Genomics Multiome</t>
+  </si>
+  <si>
+    <t>enhancer virus labeling</t>
+  </si>
+  <si>
+    <t>whole genome sequencing</t>
+  </si>
+  <si>
+    <t>common tree shrew</t>
+  </si>
+  <si>
+    <t>domestic cat</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>small-eared galago</t>
   </si>
 </sst>
 </file>
@@ -4525,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4718,7 +4739,7 @@
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="18" t="s">
-        <v>93</v>
+        <v>812</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="32" t="s">
@@ -4754,7 +4775,7 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="18"/>
@@ -4786,7 +4807,7 @@
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="18" t="s">
-        <v>598</v>
+        <v>101</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="18" t="s">
@@ -4820,7 +4841,7 @@
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="18" t="s">
@@ -4854,7 +4875,7 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="18"/>
@@ -4886,7 +4907,7 @@
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="18" t="s">
-        <v>107</v>
+        <v>600</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="18" t="s">
@@ -4912,7 +4933,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="41" t="s">
-        <v>132</v>
+        <v>815</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="18" t="s">
@@ -4920,7 +4941,7 @@
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="18" t="s">
@@ -4946,7 +4967,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="41" t="s">
-        <v>138</v>
+        <v>816</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="18" t="s">
@@ -4954,7 +4975,7 @@
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
@@ -4978,7 +4999,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="41" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="18" t="s">
@@ -4986,7 +5007,7 @@
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="18" t="s">
-        <v>601</v>
+        <v>121</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="18" t="s">
@@ -5012,7 +5033,7 @@
     </row>
     <row r="15" spans="1:19" ht="16" thickBot="1">
       <c r="A15" s="41" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="18" t="s">
@@ -5020,7 +5041,7 @@
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="18" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="19" t="s">
@@ -5046,7 +5067,7 @@
     </row>
     <row r="16" spans="1:19" ht="16" thickBot="1">
       <c r="A16" s="41" t="s">
-        <v>155</v>
+        <v>817</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="19" t="s">
@@ -5054,7 +5075,7 @@
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="18" t="s">
-        <v>602</v>
+        <v>127</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -5078,13 +5099,13 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="41" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="18" t="s">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
@@ -5108,13 +5129,13 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="41" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="18" t="s">
-        <v>139</v>
+        <v>813</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -5136,15 +5157,15 @@
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
-    <row r="19" spans="1:19" ht="16" thickBot="1">
-      <c r="A19" s="42" t="s">
-        <v>170</v>
+    <row r="19" spans="1:19">
+      <c r="A19" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="18" t="s">
-        <v>603</v>
+        <v>133</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -5167,12 +5188,14 @@
       <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:19" ht="16" thickBot="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="41" t="s">
+        <v>160</v>
+      </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="18" t="s">
-        <v>604</v>
+        <v>139</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -5195,12 +5218,14 @@
       <c r="S20" s="26"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="26"/>
+      <c r="A21" s="41" t="s">
+        <v>165</v>
+      </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
@@ -5221,12 +5246,14 @@
       <c r="S21" s="26"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="26"/>
+      <c r="A22" s="41" t="s">
+        <v>818</v>
+      </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="18" t="s">
-        <v>144</v>
+        <v>604</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -5246,13 +5273,15 @@
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:19" ht="16" thickBot="1">
+      <c r="A23" s="42" t="s">
+        <v>170</v>
+      </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="18" t="s">
-        <v>150</v>
+        <v>605</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -5278,7 +5307,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="18" t="s">
-        <v>606</v>
+        <v>144</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -5304,7 +5333,7 @@
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -5330,7 +5359,7 @@
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="18" t="s">
-        <v>161</v>
+        <v>606</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -5356,7 +5385,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="18" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -5382,7 +5411,7 @@
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="18" t="s">
-        <v>607</v>
+        <v>161</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -5408,7 +5437,7 @@
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="18" t="s">
-        <v>608</v>
+        <v>325</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -5434,7 +5463,7 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="18" t="s">
-        <v>320</v>
+        <v>607</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -5460,7 +5489,7 @@
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="18" t="s">
-        <v>166</v>
+        <v>608</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -5486,7 +5515,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="18" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -5512,7 +5541,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="18" t="s">
-        <v>609</v>
+        <v>166</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -5536,7 +5565,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -5560,7 +5589,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="18" t="s">
-        <v>179</v>
+        <v>609</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -5584,7 +5613,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="18" t="s">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5608,7 +5637,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="18" t="s">
-        <v>611</v>
+        <v>179</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5632,7 +5661,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5656,7 +5685,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="18" t="s">
-        <v>182</v>
+        <v>611</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5680,7 +5709,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -5704,7 +5733,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="18" t="s">
-        <v>614</v>
+        <v>182</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -5726,7 +5755,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="46"/>
       <c r="E42" s="18" t="s">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
@@ -5745,8 +5774,8 @@
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
-        <v>188</v>
+      <c r="E43" s="18" t="s">
+        <v>614</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
@@ -5771,7 +5800,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="18" t="s">
-        <v>617</v>
+        <v>185</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -5794,8 +5823,8 @@
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="18" t="s">
-        <v>618</v>
+      <c r="E45" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -5818,8 +5847,8 @@
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
-        <v>191</v>
+      <c r="E46" s="18" t="s">
+        <v>617</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -5841,7 +5870,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="18" t="s">
-        <v>198</v>
+        <v>618</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -5866,8 +5895,8 @@
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="18" t="s">
-        <v>201</v>
+      <c r="E48" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -5890,7 +5919,7 @@
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="E49" s="18" t="s">
-        <v>615</v>
+        <v>198</v>
       </c>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
@@ -5903,12 +5932,12 @@
       <c r="O49" s="26"/>
       <c r="P49" s="26"/>
     </row>
-    <row r="50" spans="1:16" ht="16" thickBot="1">
+    <row r="50" spans="1:16">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
-      <c r="E50" s="19" t="s">
-        <v>616</v>
+      <c r="E50" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
@@ -5925,7 +5954,9 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="E51" s="18" t="s">
+        <v>615</v>
+      </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
@@ -5936,14 +5967,12 @@
       <c r="P51" s="26"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="A52" s="26"/>
       <c r="B52" s="16"/>
       <c r="C52" s="26"/>
       <c r="D52" s="47"/>
-      <c r="E52" s="16" t="s">
-        <v>222</v>
+      <c r="E52" s="18" t="s">
+        <v>616</v>
       </c>
       <c r="F52" s="47"/>
       <c r="I52" s="26"/>
@@ -5955,14 +5984,12 @@
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="26" t="s">
-        <v>225</v>
-      </c>
+    <row r="53" spans="1:16" ht="16" thickBot="1">
+      <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
-      <c r="E53" s="26" t="s">
-        <v>225</v>
+      <c r="E53" s="19" t="s">
+        <v>814</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -5974,14 +6001,10 @@
       <c r="P53" s="26"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="26" t="s">
-        <v>227</v>
-      </c>
+      <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
-      <c r="E54" s="26" t="s">
-        <v>227</v>
-      </c>
+      <c r="E54" s="26"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
@@ -5992,13 +6015,11 @@
       <c r="P54" s="26"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="26" t="s">
-        <v>235</v>
-      </c>
+      <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
-      <c r="E55" s="26" t="s">
-        <v>229</v>
+      <c r="E55" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
@@ -6010,11 +6031,13 @@
       <c r="P55" s="26"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="26"/>
+      <c r="A56" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="E56" s="26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
@@ -6026,13 +6049,15 @@
       <c r="P56" s="26"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="26"/>
+      <c r="A57" s="26" t="s">
+        <v>225</v>
+      </c>
       <c r="B57" s="26"/>
       <c r="C57" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E57" t="s">
-        <v>619</v>
+      <c r="E57" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
@@ -6044,10 +6069,15 @@
       <c r="P57" s="26"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="26"/>
+      <c r="A58" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="B58" s="26"/>
       <c r="C58" s="26" t="s">
         <v>225</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="I58" s="26"/>
       <c r="J58" s="26"/>
@@ -6059,8 +6089,14 @@
       <c r="P58" s="26"/>
     </row>
     <row r="59" spans="1:16">
+      <c r="A59" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="C59" s="26" t="s">
         <v>227</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
@@ -6072,8 +6108,12 @@
       <c r="P59" s="26"/>
     </row>
     <row r="60" spans="1:16">
+      <c r="A60" s="26"/>
       <c r="C60" s="26" t="s">
         <v>229</v>
+      </c>
+      <c r="E60" t="s">
+        <v>619</v>
       </c>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
@@ -6085,6 +6125,7 @@
       <c r="P60" s="26"/>
     </row>
     <row r="61" spans="1:16">
+      <c r="A61" s="26"/>
       <c r="C61" s="26" t="s">
         <v>238</v>
       </c>
@@ -6098,6 +6139,7 @@
       <c r="P61" s="26"/>
     </row>
     <row r="62" spans="1:16">
+      <c r="A62" s="26"/>
       <c r="C62" s="26"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
@@ -10038,18 +10080,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="0af18bdd-3447-408d-80d3-6f9fce434a6a" xsi:nil="true"/>
-    <SharedWithUsers xmlns="ce57bbcd-944d-48da-b7d9-79b20bf66928">
-      <UserInfo>
-        <DisplayName>Tim Fliss</DisplayName>
-        <AccountId>767</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10284,21 +10320,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="0af18bdd-3447-408d-80d3-6f9fce434a6a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="ce57bbcd-944d-48da-b7d9-79b20bf66928">
+      <UserInfo>
+        <DisplayName>Tim Fliss</DisplayName>
+        <AccountId>767</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8494D3F1-3EF7-4062-8C18-CF37BCAAC176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F7C331-08C4-4F14-8B6A-29CD8DF47E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0af18bdd-3447-408d-80d3-6f9fce434a6a"/>
-    <ds:schemaRef ds:uri="ce57bbcd-944d-48da-b7d9-79b20bf66928"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10323,9 +10362,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F7C331-08C4-4F14-8B6A-29CD8DF47E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8494D3F1-3EF7-4062-8C18-CF37BCAAC176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0af18bdd-3447-408d-80d3-6f9fce434a6a"/>
+    <ds:schemaRef ds:uri="ce57bbcd-944d-48da-b7d9-79b20bf66928"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>